--- a/Project_source_links.xlsx
+++ b/Project_source_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0a4c6cb4146cbe1/Desktop/RDA2023/Team_3_Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2F238F-B0AE-4F4E-B970-14266AE14084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{FF2F238F-B0AE-4F4E-B970-14266AE14084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66D4DA9-C403-4513-A600-DFFC1D5D72B7}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DC162563-C76E-4F01-9343-D46F76EF057C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Flight Database &amp; Statistics | Aviation Analytics | OAG</t>
   </si>
@@ -51,7 +51,166 @@
     <t>Classification dataset which includes aircraft, weather, airport, and employment</t>
   </si>
   <si>
-    <t>Period</t>
+    <t>https://www.kaggle.com/datasets/threnjen/2019-airline-delays-and-cancellations</t>
+  </si>
+  <si>
+    <t>Airline Passenger Satisfaction</t>
+  </si>
+  <si>
+    <t>What factors lead to customer satisfaction for an Airline?</t>
+  </si>
+  <si>
+    <t>Airlines - The American Customer Satisfaction Index</t>
+  </si>
+  <si>
+    <t>WSJ News Exclusive | The Best and Worst Airlines of 2022</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Partner Portal / JSON Partner API / Airline Partners | Tripadvisor Developer Portal</t>
+  </si>
+  <si>
+    <t>JSON Partner API - AirlinesThe JSON Partner API provides provide dynamic access to Tripadvisor airline reviews. Partners can integrate the content into their websites and applications by calling the API, parsing the response, and displaying the data from the response on their site or in their app.</t>
+  </si>
+  <si>
+    <t>Airline Hub Guide: Which U.S. Cities Are Major Hubs and Why it Matters</t>
+  </si>
+  <si>
+    <t>IATA</t>
+  </si>
+  <si>
+    <t>iata.org
+The International Air Transport Association (IATA) supports aviation with global standards for airline safety, security, efficiency and sustainability</t>
+  </si>
+  <si>
+    <t>Consumer Issues</t>
+  </si>
+  <si>
+    <t>ask a librarian for questions on the Transportaion website:  https://transportation.libanswers.com/form</t>
+  </si>
+  <si>
+    <t>kaggle.com
+COVID-19 Airline Flight Delays and Cancellations</t>
+  </si>
+  <si>
+    <t>Which airlines have been the most affected by COVID-19?</t>
+  </si>
+  <si>
+    <t>https://www.airlines.org/dataset/u-s-passenger-carrier-delay-costs/</t>
+  </si>
+  <si>
+    <t>passenger costs</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Weather, Airport</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>pending - is US included</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>check source</t>
+  </si>
+  <si>
+    <t>Weather, Airport, Customer</t>
+  </si>
+  <si>
+    <t>bts.dot.gov
+Airline On-Time Performance and Causes of Flight Delays</t>
+  </si>
+  <si>
+    <t>requested - Tawn</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>enter only in the Main branch - in ReadMe</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>separate branch for Weather/Airport and Customer.  Commit</t>
+  </si>
+  <si>
+    <t>suggest - create 5 branches, 1 per team member.  Each commits when available and merge during class into the main branch.</t>
+  </si>
+  <si>
+    <t>do not put raw data csv in github main or branch</t>
+  </si>
+  <si>
+    <t>above 100 GB pay</t>
+  </si>
+  <si>
+    <t>API - 
+who has created an API</t>
+  </si>
+  <si>
+    <t>Period Data Available</t>
+  </si>
+  <si>
+    <t>Region Data Available</t>
+  </si>
+  <si>
+    <t>Team member</t>
+  </si>
+  <si>
+    <t>Project Question</t>
+  </si>
+  <si>
+    <r>
+      <t>The American Customer Satisfaction Index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The definitive measure of passenger satisfaction with cause-and-effect analysis (69 kB) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Airline On-Time Statistics Home Page | Airline On-Time Tables Home Page | Ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (169 kB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <r>
@@ -61,8 +220,9 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> (111 kB)</t>
     </r>
@@ -78,39 +238,22 @@
     </r>
   </si>
   <si>
-    <t>https://www.kaggle.com/datasets/threnjen/2019-airline-delays-and-cancellations</t>
-  </si>
-  <si>
-    <t>Airline Passenger Satisfaction</t>
-  </si>
-  <si>
-    <t>What factors lead to customer satisfaction for an Airline?</t>
-  </si>
-  <si>
-    <t>Airlines - The American Customer Satisfaction Index</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>WSJ News Exclusive | The Best and Worst Airlines of 2022</t>
-  </si>
-  <si>
     <r>
       <t>Not one airline had a particularly good year. Blame staffing shortages, aggressive scheduling, bad weather and big crowds.</t>
     </r>
     <r>
       <rPr>
-        <sz val="5"/>
+        <sz val="12"/>
         <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> (99 kB)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -120,151 +263,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>The American Customer Satisfaction Index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The definitive measure of passenger satisfaction with cause-and-effect analysis (69 kB) </t>
-    </r>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Partner Portal / JSON Partner API / Airline Partners | Tripadvisor Developer Portal</t>
-  </si>
-  <si>
-    <t>JSON Partner API - AirlinesThe JSON Partner API provides provide dynamic access to Tripadvisor airline reviews. Partners can integrate the content into their websites and applications by calling the API, parsing the response, and displaying the data from the response on their site or in their app.</t>
-  </si>
-  <si>
-    <t>Airline Hub Guide: Which U.S. Cities Are Major Hubs and Why it Matters</t>
-  </si>
-  <si>
-    <r>
-      <t>Airline On-Time Statistics Home Page | Airline On-Time Tables Home Page | Ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (169 kB)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>IATA</t>
-  </si>
-  <si>
-    <t>iata.org
-The International Air Transport Association (IATA) supports aviation with global standards for airline safety, security, efficiency and sustainability</t>
-  </si>
-  <si>
-    <t>iata.org
-Consumer rights need to be balanced with sustainable air services. Appropriate regulations, globally coordinated, can give passengers confidence while ensuring the freedom to fly.</t>
-  </si>
-  <si>
-    <t>Consumer Issues</t>
-  </si>
-  <si>
-    <t>ask a librarian for questions on the Transportaion website:  https://transportation.libanswers.com/form</t>
-  </si>
-  <si>
-    <t>kaggle.com
-COVID-19 Airline Flight Delays and Cancellations</t>
-  </si>
-  <si>
-    <t>Which airlines have been the most affected by COVID-19?</t>
-  </si>
-  <si>
-    <t>https://www.airlines.org/dataset/u-s-passenger-carrier-delay-costs/</t>
-  </si>
-  <si>
-    <t>passenger costs</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Weather, Airport</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>pending - is US included</t>
-  </si>
-  <si>
-    <t>Airport</t>
-  </si>
-  <si>
-    <t>check source</t>
-  </si>
-  <si>
-    <t>Anuvu - source of WSJ data for 2022</t>
-  </si>
-  <si>
-    <t>Weather, Airport, Customer</t>
-  </si>
-  <si>
-    <t>bts.dot.gov
-Airline On-Time Performance and Causes of Flight Delays</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>requested - Tawn</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>enter only in the Main branch - in ReadMe</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>separate branch for Weather/Airport and Customer.  Commit</t>
-  </si>
-  <si>
-    <t>suggest - create 5 branches, 1 per team member.  Each commits when available and merge during class into the main branch.</t>
-  </si>
-  <si>
-    <t>do not put raw data csv in github main or branch</t>
-  </si>
-  <si>
-    <t>above 100 GB pay</t>
+    <t>IATA.ORG</t>
+  </si>
+  <si>
+    <t>Anuvu Unveils New Real-Time Data on U.S. Airline Performance :: Anuvu
+https://pulse2.anuvu.com/public-dashboard/Usindustrydashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +289,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -310,23 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -366,58 +363,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,13 +446,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -788,242 +790,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516CFFBA-A8A6-4BA4-A11A-2825445EDC26}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.05078125" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.3671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.20703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="43.62890625" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.9453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.9453125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="58.05078125" style="6"/>
+    <col min="5" max="5" width="14.9453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.3671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="14.734375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="58.05078125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.6">
-      <c r="A2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10">
-        <v>2019</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29.1" x14ac:dyDescent="0.6">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="29" spans="2:4" ht="78" x14ac:dyDescent="0.6">
-      <c r="C29" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C32" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F16" xr:uid="{516CFFBA-A8A6-4BA4-A11A-2825445EDC26}"/>
+  <autoFilter ref="A1:F16" xr:uid="{516CFFBA-A8A6-4BA4-A11A-2825445EDC26}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+      <sortCondition ref="A1:A16"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F33">
     <sortCondition ref="B2:B33"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.oag.com/" xr:uid="{018132EF-5CA5-4952-913D-9E3F58F34D34}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.kaggle.com/datasets/threnjen/2019-airline-delays-and-cancellations" xr:uid="{41B7F1A8-7F00-4112-A931-02AF809430C0}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{D552F0AB-EE5B-4E1D-8F60-791D1908ABF1}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.kaggle.com/datasets/teejmahal20/airline-passenger-satisfaction" xr:uid="{57F385FF-BCBB-4F34-AB55-5CC143B848F0}"/>
-    <hyperlink ref="B15" r:id="rId5" display="https://www.wsj.com/articles/best-worst-us-airlines-flights-cancellations-delays-baggage-11673982171" xr:uid="{CABAC9B8-1AA9-412C-9A60-16928FE48D7D}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://www.theacsi.org/industries/travel/airlines/" xr:uid="{49A645A0-0ADE-4C7E-AFF6-E500098CE5A4}"/>
-    <hyperlink ref="B14" r:id="rId7" display="https://developer-tripadvisor.com/partner/json-api/airline-partners/" xr:uid="{F3957A87-2A7D-4E87-8779-65B51A64FEC2}"/>
-    <hyperlink ref="B3" r:id="rId8" display="https://www.airfarewatchdog.com/blog/50066526/airline-hub-guide-which-u-s-cities-are-major-hubs-and-why-it-matters/" xr:uid="{A7EF9A19-44F3-47F6-A0E1-B44797D672E8}"/>
-    <hyperlink ref="B4" r:id="rId9" display="https://www.bts.dot.gov/explore-topics-and-geography/topics/airline-time-performance-and-causes-flight-delays" xr:uid="{01220F4A-8E8F-465B-98F2-92868695E917}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://www.iata.org/" xr:uid="{432BFE7F-C37B-4CF7-9901-B6B9FB5F6B47}"/>
-    <hyperlink ref="B7" r:id="rId11" display="https://transportation.libanswers.com/form" xr:uid="{ADCABAAB-CDCB-41A7-B761-53451E313814}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{E92262EE-31FB-4E28-AE56-7D157642CF93}"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.oag.com/" xr:uid="{018132EF-5CA5-4952-913D-9E3F58F34D34}"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://www.kaggle.com/datasets/threnjen/2019-airline-delays-and-cancellations" xr:uid="{41B7F1A8-7F00-4112-A931-02AF809430C0}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{D552F0AB-EE5B-4E1D-8F60-791D1908ABF1}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.kaggle.com/datasets/teejmahal20/airline-passenger-satisfaction" xr:uid="{57F385FF-BCBB-4F34-AB55-5CC143B848F0}"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://www.wsj.com/articles/best-worst-us-airlines-flights-cancellations-delays-baggage-11673982171" xr:uid="{CABAC9B8-1AA9-412C-9A60-16928FE48D7D}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.theacsi.org/industries/travel/airlines/" xr:uid="{49A645A0-0ADE-4C7E-AFF6-E500098CE5A4}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://developer-tripadvisor.com/partner/json-api/airline-partners/" xr:uid="{F3957A87-2A7D-4E87-8779-65B51A64FEC2}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.airfarewatchdog.com/blog/50066526/airline-hub-guide-which-u-s-cities-are-major-hubs-and-why-it-matters/" xr:uid="{A7EF9A19-44F3-47F6-A0E1-B44797D672E8}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://www.bts.dot.gov/explore-topics-and-geography/topics/airline-time-performance-and-causes-flight-delays" xr:uid="{01220F4A-8E8F-465B-98F2-92868695E917}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.iata.org/" xr:uid="{432BFE7F-C37B-4CF7-9901-B6B9FB5F6B47}"/>
+    <hyperlink ref="B10" r:id="rId11" display="https://transportation.libanswers.com/form" xr:uid="{ADCABAAB-CDCB-41A7-B761-53451E313814}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{E92262EE-31FB-4E28-AE56-7D157642CF93}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.anuvu.com/our-company/newsroom/press-releases/detail/288/anuvu-unveils-new-real-time-data-on-u-s-airline-performance" xr:uid="{9961B247-7D99-4213-B811-EA01918CA438}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1042,33 +1053,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
